--- a/Dimagi/ESPEN Collect forms/oncho_4_black_flies_lab.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_4_black_flies_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D846AC3-B38B-4CCD-AD0F-CBB6718DAF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411CF06F-2DAA-483A-9301-072739671359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,12 +334,6 @@
     <t>GPS Longitude</t>
   </si>
   <si>
-    <t>Months of Fly Collection: **${select_pool_months}**
-Total Number of Pools: **${pools_count}**
-Total Number of Positive Pools: **${pools_positive}**
-Total Number of Negative Pools: **${pools_negative}**</t>
-  </si>
-  <si>
     <t>${confirm_pool_summary} = 'Yes'</t>
   </si>
   <si>
@@ -413,6 +407,11 @@
   </si>
   <si>
     <t>Before submitting the form, please ensure that you review and confirm all provided information. If needed, go back to revise any details to ensure accuracy.</t>
+  </si>
+  <si>
+    <t>Months of Fly Collection: **${select_pool_months}**Total Number of Positive Pools: **${pools_positive}**
+Total Number of Negative Pools: **${pools_negative}**
+Total Number of Pools: **${pools_less_100}**</t>
   </si>
 </sst>
 </file>
@@ -954,10 +953,10 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1176,7 @@
     </row>
     <row r="9" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>33</v>
@@ -1205,7 +1204,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
@@ -1224,17 +1223,17 @@
         <v>80</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1247,13 +1246,13 @@
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
@@ -1261,7 +1260,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1275,7 +1274,7 @@
         <v>84</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
@@ -1299,7 +1298,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
@@ -1323,7 +1322,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
@@ -1384,17 +1383,17 @@
         <v>80</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="20"/>
       <c r="H18" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -1407,13 +1406,13 @@
     </row>
     <row r="19" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7"/>
@@ -1421,7 +1420,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1435,7 +1434,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
@@ -1459,7 +1458,7 @@
         <v>91</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="7"/>
@@ -1483,7 +1482,7 @@
         <v>92</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="7"/>
@@ -1544,17 +1543,17 @@
         <v>80</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>115</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>116</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="20"/>
       <c r="H25" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -1562,18 +1561,18 @@
       <c r="L25" s="21"/>
       <c r="M25" s="18"/>
       <c r="N25" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="7"/>
@@ -1581,7 +1580,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -1715,7 +1714,7 @@
       <c r="K32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:14" s="10" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>77</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="18"/>
@@ -1750,10 +1749,10 @@
       <c r="D34" s="9"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -2067,10 +2066,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>

--- a/Dimagi/ESPEN Collect forms/oncho_4_black_flies_lab.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_4_black_flies_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411CF06F-2DAA-483A-9301-072739671359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E4A130-13FD-4C61-87ED-059178410DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="128">
   <si>
     <t>type</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Please select the months in which the flies included in this pool were collected</t>
   </si>
   <si>
-    <t>How many pools of a 100 tested Negative by PCR</t>
-  </si>
-  <si>
     <t>How many pools of less than 100 were tested for this site?</t>
   </si>
   <si>
@@ -337,9 +334,6 @@
     <t>${confirm_pool_summary} = 'Yes'</t>
   </si>
   <si>
-    <t>How many pools of a 100 flies tested positive by PCR</t>
-  </si>
-  <si>
     <t>Pools of Positives</t>
   </si>
   <si>
@@ -367,21 +361,6 @@
     <t>select_multiple month</t>
   </si>
   <si>
-    <t>oncho_4_black_flies_lab</t>
-  </si>
-  <si>
-    <t>4. Blackfly Lab App</t>
-  </si>
-  <si>
-    <t>pools_positive_details_v3</t>
-  </si>
-  <si>
-    <t>pools_negative_details_v3</t>
-  </si>
-  <si>
-    <t>pools_less_100_details_v3</t>
-  </si>
-  <si>
     <t>Pools less than 100</t>
   </si>
   <si>
@@ -409,9 +388,40 @@
     <t>Before submitting the form, please ensure that you review and confirm all provided information. If needed, go back to revise any details to ensure accuracy.</t>
   </si>
   <si>
-    <t>Months of Fly Collection: **${select_pool_months}**Total Number of Positive Pools: **${pools_positive}**
+    <t>"Positive"</t>
+  </si>
+  <si>
+    <t>"PCR"</t>
+  </si>
+  <si>
+    <t>"Negative"</t>
+  </si>
+  <si>
+    <t>"How many pools of 100 flies tested positive by PCR</t>
+  </si>
+  <si>
+    <t>"How many pools of 100 flies tested negative by PCR</t>
+  </si>
+  <si>
+    <t>Months of Fly Collection: **${select_pool_months}**
+Total Number of Positive Pools: **${pools_positive}**
 Total Number of Negative Pools: **${pools_negative}**
-Total Number of Pools: **${pools_less_100}**</t>
+Total Number of Pools less than 100: **${pools_less_100}**</t>
+  </si>
+  <si>
+    <t>oncho_4_black_flies_lab_v4</t>
+  </si>
+  <si>
+    <t>4. Blackfly Lab App V4</t>
+  </si>
+  <si>
+    <t>pools_positive_details_v4</t>
+  </si>
+  <si>
+    <t>pools_negative_details_v4</t>
+  </si>
+  <si>
+    <t>pools_less_100_details_v4</t>
   </si>
 </sst>
 </file>
@@ -953,10 +963,10 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1017,12 +1027,12 @@
         <v>22</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>28</v>
@@ -1044,7 +1054,7 @@
     </row>
     <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>29</v>
@@ -1066,7 +1076,7 @@
     </row>
     <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>30</v>
@@ -1088,7 +1098,7 @@
     </row>
     <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>31</v>
@@ -1110,13 +1120,13 @@
     </row>
     <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
@@ -1132,13 +1142,13 @@
     </row>
     <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
@@ -1154,7 +1164,7 @@
     </row>
     <row r="8" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>32</v>
@@ -1176,7 +1186,7 @@
     </row>
     <row r="9" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>33</v>
@@ -1196,7 +1206,7 @@
       <c r="K9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1204,7 +1214,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
@@ -1220,20 +1230,20 @@
     </row>
     <row r="11" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1241,18 +1251,18 @@
       <c r="L11" s="21"/>
       <c r="M11" s="18"/>
       <c r="N11" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
@@ -1260,7 +1270,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1268,79 +1278,79 @@
     </row>
     <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="9"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>100</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7">
         <v>100</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="9"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -1364,7 +1374,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="7"/>
@@ -1380,20 +1390,20 @@
     </row>
     <row r="18" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="20"/>
       <c r="H18" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -1401,18 +1411,18 @@
       <c r="L18" s="21"/>
       <c r="M18" s="18"/>
       <c r="N18" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7"/>
@@ -1420,7 +1430,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1431,76 +1441,76 @@
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="9"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="9"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="7">
+        <v>100</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7">
         <v>100</v>
       </c>
-      <c r="M21" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
@@ -1524,7 +1534,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="7"/>
@@ -1540,20 +1550,20 @@
     </row>
     <row r="25" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="20"/>
       <c r="H25" s="18" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -1561,18 +1571,18 @@
       <c r="L25" s="21"/>
       <c r="M25" s="18"/>
       <c r="N25" s="21" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="7"/>
@@ -1580,7 +1590,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -1594,7 +1604,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
@@ -1610,13 +1620,13 @@
     </row>
     <row r="28" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="7"/>
@@ -1632,7 +1642,7 @@
     </row>
     <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
@@ -1650,13 +1660,13 @@
     </row>
     <row r="30" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="7"/>
@@ -1672,13 +1682,13 @@
     </row>
     <row r="31" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="7"/>
@@ -1700,7 +1710,7 @@
         <v>41</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="7"/>
@@ -1709,20 +1719,20 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:14" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="10" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="18"/>
@@ -1738,21 +1748,21 @@
     </row>
     <row r="34" spans="1:14" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -1868,167 +1878,167 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2042,7 +2052,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2066,10 +2076,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>

--- a/Dimagi/ESPEN Collect forms/oncho_4_black_flies_lab.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_4_black_flies_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E4A130-13FD-4C61-87ED-059178410DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836AB57A-B3DE-4DF7-8956-06B44990A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -966,7 +966,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="20" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>89</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="21" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>90</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="22" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>91</v>

--- a/Dimagi/ESPEN Collect forms/oncho_4_black_flies_lab.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_4_black_flies_lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836AB57A-B3DE-4DF7-8956-06B44990A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C38788F-E81B-4CC2-80AE-02486EAADB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="136">
   <si>
     <t>type</t>
   </si>
@@ -403,25 +403,48 @@
     <t>"How many pools of 100 flies tested negative by PCR</t>
   </si>
   <si>
+    <t>oncho_4_black_flies_lab_v4</t>
+  </si>
+  <si>
+    <t>4. Blackfly Lab App V4</t>
+  </si>
+  <si>
+    <t>pools_positive_details_v4</t>
+  </si>
+  <si>
+    <t>pools_negative_details_v4</t>
+  </si>
+  <si>
+    <t>pools_less_100_details_v4</t>
+  </si>
+  <si>
+    <t>pool_result_negative</t>
+  </si>
+  <si>
+    <t>pool_result_positive</t>
+  </si>
+  <si>
+    <t>if(${pool_result} = 'Negative', 1, 0 )</t>
+  </si>
+  <si>
+    <t>if(${pool_result} = 'Positive', 1, 0 )</t>
+  </si>
+  <si>
+    <t>negative_count</t>
+  </si>
+  <si>
+    <t>positive_count</t>
+  </si>
+  <si>
+    <t>sum(${pool_result_negative}) + ${pools_negative}</t>
+  </si>
+  <si>
+    <t>sum(${pool_result_positive}) + ${pools_positive}</t>
+  </si>
+  <si>
     <t>Months of Fly Collection: **${select_pool_months}**
-Total Number of Positive Pools: **${pools_positive}**
-Total Number of Negative Pools: **${pools_negative}**
-Total Number of Pools less than 100: **${pools_less_100}**</t>
-  </si>
-  <si>
-    <t>oncho_4_black_flies_lab_v4</t>
-  </si>
-  <si>
-    <t>4. Blackfly Lab App V4</t>
-  </si>
-  <si>
-    <t>pools_positive_details_v4</t>
-  </si>
-  <si>
-    <t>pools_negative_details_v4</t>
-  </si>
-  <si>
-    <t>pools_less_100_details_v4</t>
+Total Number of Positive Pools: **${positive_count}**
+Total Number of Negative Pools: **${negative_count}**</t>
   </si>
 </sst>
 </file>
@@ -560,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -615,6 +638,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -960,13 +986,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:A22"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -979,7 +1005,7 @@
     <col min="6" max="6" width="24" style="3" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="29.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="3" customWidth="1"/>
     <col min="11" max="11" width="20.25" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.75" style="3" bestFit="1" customWidth="1"/>
@@ -1233,7 +1259,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>99</v>
@@ -1393,7 +1419,7 @@
         <v>79</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>100</v>
@@ -1553,7 +1579,7 @@
         <v>79</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>108</v>
@@ -1641,129 +1667,117 @@
       <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="21"/>
+      <c r="A29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>53</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="9"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="I30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="A31" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="21"/>
     </row>
     <row r="32" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>55</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="9"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="I32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:14" s="10" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="21"/>
-    </row>
-    <row r="34" spans="1:14" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>116</v>
-      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
@@ -1772,43 +1786,135 @@
       <c r="K34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="21"/>
+    </row>
+    <row r="38" spans="1:14" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1822,7 +1928,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2118,7 @@
       <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -2023,7 +2129,7 @@
       <c r="A20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -2076,10 +2182,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
